--- a/biology/Histoire de la zoologie et de la botanique/Musée_La_Salle_des_sciences_naturelles/Musée_La_Salle_des_sciences_naturelles.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_La_Salle_des_sciences_naturelles/Musée_La_Salle_des_sciences_naturelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_La_Salle_des_sciences_naturelles</t>
+          <t>Musée_La_Salle_des_sciences_naturelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée La Salle des sciences naturelles est un musée d'histoire naturelle situé au Costa Rica. Son fondateur a été le frère Eduardo Fernández Bárcena qui l'inaugura en 1960 et depuis, ses nombreux exemplaires sont d'une grande valeur historique et scientifique pour le pays.
 Le musée est ouvert au public tous les jours du lundi au samedi de 8 à 16 heures, et les dimanches, ainsi que jours fériés de 9 à 17 heures.  Le musée compte avec plus de 70 000 spécimens de zoologie, paléontologie, archéologie et minéralogie.  Le bâtiment est situé dans le quartier du parc métropolitain La Sabana, à San José dans les lotissements du Ministère d'Agriculture.
